--- a/2019-07-11-fulltext-empirical-included.xlsx
+++ b/2019-07-11-fulltext-empirical-included.xlsx
@@ -4593,9 +4593,6 @@
     <t>Gambusia holbrooki</t>
   </si>
   <si>
-    <t>two levels of diet, tow age clasess two levels of imbreeding</t>
-  </si>
-  <si>
     <t>size at birth, size and age at maturity, and (for sons) gonopodium length</t>
   </si>
   <si>
@@ -4767,9 +4764,6 @@
     <t>Drug; Physiological factor</t>
   </si>
   <si>
-    <t>Diet; Age; Other</t>
-  </si>
-  <si>
     <t>Just_born_hatched_traits</t>
   </si>
   <si>
@@ -4816,6 +4810,12 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Diet; Age; Physiological factor</t>
+  </si>
+  <si>
+    <t>two levels of diet, two age clasess two levels of inbreeding (classified as Physiologial factor)</t>
   </si>
 </sst>
 </file>
@@ -5382,10 +5382,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N236" sqref="N236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5411,85 +5411,85 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C1" t="s">
         <v>1535</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1536</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1537</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1538</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1539</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1540</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1541</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1542</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1543</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1544</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1545</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1546</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1547</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1548</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="R1" t="s">
         <v>1549</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="W1" t="s">
         <v>1580</v>
       </c>
-      <c r="R1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Z1" s="52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1553</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>1584</v>
-      </c>
-      <c r="Z1" s="52" t="s">
-        <v>1585</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5515,13 +5515,13 @@
         <v>151</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>254</v>
@@ -5556,7 +5556,7 @@
         <v>23</v>
       </c>
       <c r="Y2" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z2" s="54" t="s">
         <v>9</v>
@@ -5586,13 +5586,13 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>276</v>
@@ -5627,7 +5627,7 @@
         <v>9</v>
       </c>
       <c r="Y3" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z3" s="54" t="s">
         <v>9</v>
@@ -5663,7 +5663,7 @@
         <v>301</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>815</v>
@@ -5698,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z4" s="54" t="s">
         <v>9</v>
@@ -5728,13 +5728,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>819</v>
@@ -5767,7 +5767,7 @@
         <v>23</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z5" s="54" t="s">
         <v>9</v>
@@ -5803,7 +5803,7 @@
         <v>301</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>1361</v>
@@ -5840,7 +5840,7 @@
         <v>23</v>
       </c>
       <c r="Y6" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z6" s="54" t="s">
         <v>9</v>
@@ -5870,13 +5870,13 @@
         <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>587</v>
@@ -5911,7 +5911,7 @@
         <v>9</v>
       </c>
       <c r="Y7" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z7" s="54" t="s">
         <v>9</v>
@@ -5947,7 +5947,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1494</v>
@@ -5984,7 +5984,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z8" s="54" t="s">
         <v>9</v>
@@ -6007,7 +6007,7 @@
         <v>2014</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>81</v>
@@ -6025,13 +6025,13 @@
         <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>18</v>
@@ -6060,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z9" s="54" t="s">
         <v>23</v>
@@ -6096,7 +6096,7 @@
         <v>137</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>553</v>
@@ -6135,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z10" s="54" t="s">
         <v>23</v>
@@ -6165,13 +6165,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1304</v>
@@ -6204,7 +6204,7 @@
         <v>9</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z11" s="54" t="s">
         <v>23</v>
@@ -6245,13 +6245,13 @@
         <v>7</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>18</v>
@@ -6282,7 +6282,7 @@
         <v>9</v>
       </c>
       <c r="Y12" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z12" s="54" t="s">
         <v>23</v>
@@ -6300,7 +6300,7 @@
         <v>2018</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>1439</v>
@@ -6312,13 +6312,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>553</v>
@@ -6355,7 +6355,7 @@
         <v>9</v>
       </c>
       <c r="Y13" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z13" s="54" t="s">
         <v>23</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -6385,13 +6385,13 @@
         <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>612</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>805</v>
@@ -6411,10 +6411,10 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>1529</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>1530</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>9</v>
@@ -6424,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="Y14" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z14" s="54" t="s">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         <v>137</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>805</v>
@@ -6497,7 +6497,7 @@
         <v>9</v>
       </c>
       <c r="Y15" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z15" s="54" t="s">
         <v>23</v>
@@ -6515,7 +6515,7 @@
         <v>2016</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>1503</v>
@@ -6533,13 +6533,13 @@
         <v>7</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>553</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>18</v>
@@ -6568,7 +6568,7 @@
         <v>9</v>
       </c>
       <c r="Y16" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z16" s="54" t="s">
         <v>23</v>
@@ -6582,10 +6582,10 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1532</v>
       </c>
       <c r="C17" s="3">
         <v>2014</v>
@@ -6609,10 +6609,10 @@
         <v>7</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>28</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>9</v>
@@ -6644,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="Y17" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z17" s="54" t="s">
         <v>23</v>
@@ -6674,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>301</v>
@@ -6713,7 +6713,7 @@
         <v>9</v>
       </c>
       <c r="Y18" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z18" s="54" t="s">
         <v>9</v>
@@ -6743,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>7</v>
@@ -6782,7 +6782,7 @@
         <v>9</v>
       </c>
       <c r="Y19" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z19" s="54" t="s">
         <v>9</v>
@@ -6805,7 +6805,7 @@
         <v>2018</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>824</v>
@@ -6823,13 +6823,13 @@
         <v>7</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>825</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>18</v>
@@ -6858,7 +6858,7 @@
         <v>9</v>
       </c>
       <c r="Y20" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z20" s="54" t="s">
         <v>9</v>
@@ -6888,13 +6888,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>206</v>
@@ -6931,7 +6931,7 @@
         <v>9</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z21" s="54" t="s">
         <v>9</v>
@@ -6961,19 +6961,19 @@
         <v>151</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>712</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>9</v>
@@ -7004,7 +7004,7 @@
         <v>9</v>
       </c>
       <c r="Y22" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z22" s="54" t="s">
         <v>9</v>
@@ -7034,13 +7034,13 @@
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>121</v>
@@ -7073,7 +7073,7 @@
         <v>9</v>
       </c>
       <c r="Y23" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z23" s="54" t="s">
         <v>9</v>
@@ -7103,13 +7103,13 @@
         <v>6</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>237</v>
@@ -7142,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="Y24" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z24" s="54" t="s">
         <v>9</v>
@@ -7172,13 +7172,13 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>777</v>
@@ -7211,7 +7211,7 @@
         <v>9</v>
       </c>
       <c r="Y25" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z25" s="54" t="s">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>945</v>
@@ -7280,7 +7280,7 @@
         <v>9</v>
       </c>
       <c r="Y26" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z26" s="54" t="s">
         <v>9</v>
@@ -7310,13 +7310,13 @@
         <v>6</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1386</v>
@@ -7349,7 +7349,7 @@
         <v>23</v>
       </c>
       <c r="Y27" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z27" s="54" t="s">
         <v>9</v>
@@ -7379,13 +7379,13 @@
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>1426</v>
@@ -7420,7 +7420,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z28" s="54" t="s">
         <v>9</v>
@@ -7456,13 +7456,13 @@
         <v>7</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>9</v>
@@ -7489,7 +7489,7 @@
         <v>23</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z29" s="54" t="s">
         <v>9</v>
@@ -7507,7 +7507,7 @@
         <v>2018</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>15</v>
@@ -7525,13 +7525,13 @@
         <v>7</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>18</v>
@@ -7560,7 +7560,7 @@
         <v>9</v>
       </c>
       <c r="Y30" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z30" s="54" t="s">
         <v>23</v>
@@ -7578,7 +7578,7 @@
         <v>2018</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>1439</v>
@@ -7590,19 +7590,19 @@
         <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>1440</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>18</v>
@@ -7633,7 +7633,7 @@
         <v>9</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z31" s="54" t="s">
         <v>23</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="32" spans="1:32" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C32" s="61">
         <v>1985</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>5</v>
@@ -7669,13 +7669,13 @@
         <v>7</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M32" s="61" t="s">
         <v>9</v>
@@ -7696,7 +7696,7 @@
         <v>48</v>
       </c>
       <c r="U32" s="61" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="V32" s="61" t="s">
         <v>9</v>
@@ -7706,13 +7706,13 @@
         <v>9</v>
       </c>
       <c r="Y32" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z32" s="65" t="s">
         <v>9</v>
       </c>
       <c r="AA32" s="61" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7744,7 +7744,7 @@
         <v>125</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K33" s="61" t="s">
         <v>1247</v>
@@ -7779,7 +7779,7 @@
         <v>9</v>
       </c>
       <c r="Y33" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z33" s="65" t="s">
         <v>9</v>
@@ -7809,13 +7809,13 @@
         <v>6</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I34" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K34" s="61" t="s">
         <v>1452</v>
@@ -7850,7 +7850,7 @@
         <v>23</v>
       </c>
       <c r="Y34" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z34" s="65" t="s">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K35" s="61" t="s">
         <v>449</v>
@@ -7925,7 +7925,7 @@
         <v>23</v>
       </c>
       <c r="Y35" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z35" s="65" t="s">
         <v>9</v>
@@ -7955,13 +7955,13 @@
         <v>6</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I36" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K36" s="61" t="s">
         <v>629</v>
@@ -7994,7 +7994,7 @@
         <v>9</v>
       </c>
       <c r="Y36" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z36" s="65" t="s">
         <v>9</v>
@@ -8024,13 +8024,13 @@
         <v>6</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I37" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K37" s="61" t="s">
         <v>690</v>
@@ -8065,7 +8065,7 @@
         <v>9</v>
       </c>
       <c r="Y37" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z37" s="65" t="s">
         <v>9</v>
@@ -8095,13 +8095,13 @@
         <v>6</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I38" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K38" s="61" t="s">
         <v>698</v>
@@ -8136,7 +8136,7 @@
         <v>9</v>
       </c>
       <c r="Y38" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z38" s="65" t="s">
         <v>9</v>
@@ -8172,7 +8172,7 @@
         <v>125</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K39" s="61" t="s">
         <v>729</v>
@@ -8205,7 +8205,7 @@
         <v>9</v>
       </c>
       <c r="Y39" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z39" s="65" t="s">
         <v>9</v>
@@ -8235,13 +8235,13 @@
         <v>6</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I40" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J40" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K40" s="61" t="s">
         <v>1403</v>
@@ -8278,7 +8278,7 @@
         <v>23</v>
       </c>
       <c r="Y40" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z40" s="65" t="s">
         <v>9</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="41" spans="1:27" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B41" s="61" t="s">
         <v>1524</v>
-      </c>
-      <c r="B41" s="61" t="s">
-        <v>1525</v>
       </c>
       <c r="C41" s="67">
         <v>2015</v>
@@ -8308,16 +8308,16 @@
         <v>6</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I41" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="L41" s="61" t="s">
         <v>28</v>
@@ -8339,7 +8339,7 @@
       <c r="S41" s="61"/>
       <c r="T41" s="61"/>
       <c r="U41" s="61" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="V41" s="61" t="s">
         <v>9</v>
@@ -8349,7 +8349,7 @@
         <v>23</v>
       </c>
       <c r="Y41" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z41" s="65" t="s">
         <v>9</v>
@@ -8385,7 +8385,7 @@
         <v>7</v>
       </c>
       <c r="J42" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K42" s="61" t="s">
         <v>375</v>
@@ -8424,7 +8424,7 @@
         <v>9</v>
       </c>
       <c r="Y42" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z42" s="65" t="s">
         <v>23</v>
@@ -8460,7 +8460,7 @@
         <v>137</v>
       </c>
       <c r="J43" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K43" s="61" t="s">
         <v>138</v>
@@ -8497,7 +8497,7 @@
         <v>9</v>
       </c>
       <c r="Y43" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z43" s="65" t="s">
         <v>23</v>
@@ -8527,13 +8527,13 @@
         <v>6</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I44" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K44" s="61" t="s">
         <v>695</v>
@@ -8568,7 +8568,7 @@
         <v>23</v>
       </c>
       <c r="Y44" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z44" s="65" t="s">
         <v>23</v>
@@ -8598,13 +8598,13 @@
         <v>6</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I45" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K45" s="61" t="s">
         <v>800</v>
@@ -8637,7 +8637,7 @@
         <v>23</v>
       </c>
       <c r="Y45" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z45" s="65" t="s">
         <v>23</v>
@@ -8667,13 +8667,13 @@
         <v>6</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I46" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K46" s="61" t="s">
         <v>835</v>
@@ -8708,7 +8708,7 @@
         <v>23</v>
       </c>
       <c r="Y46" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z46" s="65" t="s">
         <v>23</v>
@@ -8738,13 +8738,13 @@
         <v>6</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I47" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K47" s="61" t="s">
         <v>1390</v>
@@ -8781,7 +8781,7 @@
         <v>23</v>
       </c>
       <c r="Y47" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z47" s="65" t="s">
         <v>23</v>
@@ -8811,13 +8811,13 @@
         <v>6</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>684</v>
@@ -8852,7 +8852,7 @@
         <v>23</v>
       </c>
       <c r="Y48" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z48" s="54" t="s">
         <v>9</v>
@@ -8884,13 +8884,13 @@
         <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>285</v>
@@ -8927,7 +8927,7 @@
         <v>23</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z49" s="54" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>680</v>
@@ -8998,7 +8998,7 @@
         <v>9</v>
       </c>
       <c r="Y50" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z50" s="54" t="s">
         <v>9</v>
@@ -9028,19 +9028,19 @@
         <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>9</v>
@@ -9067,7 +9067,7 @@
         <v>23</v>
       </c>
       <c r="Y51" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z51" s="54" t="s">
         <v>9</v>
@@ -9102,13 +9102,13 @@
         <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>1255</v>
@@ -9141,7 +9141,7 @@
         <v>9</v>
       </c>
       <c r="Y52" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z52" s="54" t="s">
         <v>9</v>
@@ -9176,13 +9176,13 @@
         <v>151</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>1308</v>
@@ -9215,7 +9215,7 @@
         <v>9</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z53" s="54" t="s">
         <v>9</v>
@@ -9250,13 +9250,13 @@
         <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>759</v>
@@ -9291,7 +9291,7 @@
         <v>23</v>
       </c>
       <c r="Y54" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z54" s="54" t="s">
         <v>9</v>
@@ -9327,7 +9327,7 @@
         <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>910</v>
@@ -9362,7 +9362,7 @@
         <v>9</v>
       </c>
       <c r="Y55" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z55" s="54" t="s">
         <v>9</v>
@@ -9392,13 +9392,13 @@
         <v>6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>1366</v>
@@ -9431,7 +9431,7 @@
         <v>23</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z56" s="54" t="s">
         <v>9</v>
@@ -9461,19 +9461,19 @@
         <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>18</v>
@@ -9504,7 +9504,7 @@
         <v>23</v>
       </c>
       <c r="Y57" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z57" s="54" t="s">
         <v>9</v>
@@ -9540,13 +9540,13 @@
         <v>7</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>9</v>
@@ -9575,7 +9575,7 @@
         <v>9</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z58" s="54" t="s">
         <v>23</v>
@@ -9611,13 +9611,13 @@
         <v>7</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>557</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>9</v>
@@ -9644,7 +9644,7 @@
         <v>9</v>
       </c>
       <c r="Y59" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z59" s="54" t="s">
         <v>23</v>
@@ -9680,13 +9680,13 @@
         <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>659</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>9</v>
@@ -9715,7 +9715,7 @@
         <v>9</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z60" s="54" t="s">
         <v>23</v>
@@ -9745,13 +9745,13 @@
         <v>6</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>1167</v>
@@ -9786,7 +9786,7 @@
         <v>9</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z61" s="54" t="s">
         <v>23</v>
@@ -9804,7 +9804,7 @@
         <v>2019</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>1498</v>
@@ -9822,7 +9822,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>1499</v>
@@ -9857,7 +9857,7 @@
         <v>9</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z62" s="54" t="s">
         <v>23</v>
@@ -9887,13 +9887,13 @@
         <v>151</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>242</v>
@@ -9930,7 +9930,7 @@
         <v>23</v>
       </c>
       <c r="Y63" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z63" s="54" t="s">
         <v>9</v>
@@ -9960,13 +9960,13 @@
         <v>151</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>1489</v>
@@ -9999,7 +9999,7 @@
         <v>32</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z64" s="54" t="s">
         <v>23</v>
@@ -10034,13 +10034,13 @@
         <v>6</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>986</v>
@@ -10077,7 +10077,7 @@
         <v>32</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z65" s="54" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>301</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>608</v>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="Z66" s="54" t="s">
         <v>9</v>
@@ -10183,13 +10183,13 @@
         <v>6</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>809</v>
@@ -10222,7 +10222,7 @@
         <v>23</v>
       </c>
       <c r="Y67" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z67" s="54" t="s">
         <v>9</v>
@@ -10260,7 +10260,7 @@
         <v>7</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>843</v>
@@ -10293,7 +10293,7 @@
         <v>23</v>
       </c>
       <c r="Y68" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z68" s="54" t="s">
         <v>9</v>
@@ -10325,19 +10325,19 @@
         <v>6</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>490</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>9</v>
@@ -10364,7 +10364,7 @@
         <v>9</v>
       </c>
       <c r="Y69" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z69" s="54" t="s">
         <v>9</v>
@@ -10396,13 +10396,13 @@
         <v>104</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>261</v>
@@ -10437,7 +10437,7 @@
         <v>23</v>
       </c>
       <c r="Y70" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z70" s="54" t="s">
         <v>23</v>
@@ -10467,7 +10467,7 @@
         <v>6</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>7</v>
@@ -10510,10 +10510,10 @@
         <v>9</v>
       </c>
       <c r="Y71" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Z71" s="54" t="s">
         <v>1592</v>
-      </c>
-      <c r="Z71" s="54" t="s">
-        <v>1594</v>
       </c>
       <c r="AA71" s="4" t="s">
         <v>505</v>
@@ -10542,7 +10542,7 @@
         <v>104</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>7</v>
@@ -10581,10 +10581,10 @@
         <v>23</v>
       </c>
       <c r="Y72" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Z72" s="54" t="s">
         <v>1592</v>
-      </c>
-      <c r="Z72" s="54" t="s">
-        <v>1594</v>
       </c>
       <c r="AA72" s="1"/>
     </row>
@@ -10611,7 +10611,7 @@
         <v>104</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>125</v>
@@ -10652,7 +10652,7 @@
         <v>9</v>
       </c>
       <c r="Y73" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z73" s="54" t="s">
         <v>9</v>
@@ -10723,7 +10723,7 @@
         <v>9</v>
       </c>
       <c r="Y74" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z74" s="54" t="s">
         <v>9</v>
@@ -10755,7 +10755,7 @@
         <v>6</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>7</v>
@@ -10798,7 +10798,7 @@
         <v>9</v>
       </c>
       <c r="Y75" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z75" s="54" t="s">
         <v>9</v>
@@ -10830,7 +10830,7 @@
         <v>6</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>7</v>
@@ -10873,7 +10873,7 @@
         <v>23</v>
       </c>
       <c r="Y76" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z76" s="54" t="s">
         <v>9</v>
@@ -10911,7 +10911,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>904</v>
@@ -10944,7 +10944,7 @@
         <v>23</v>
       </c>
       <c r="Y77" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z77" s="54" t="s">
         <v>9</v>
@@ -10976,13 +10976,13 @@
         <v>6</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>167</v>
@@ -11019,7 +11019,7 @@
         <v>23</v>
       </c>
       <c r="Y78" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z78" s="54" t="s">
         <v>9</v>
@@ -11057,7 +11057,7 @@
         <v>7</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>838</v>
@@ -11090,7 +11090,7 @@
         <v>9</v>
       </c>
       <c r="Y79" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z79" s="54" t="s">
         <v>9</v>
@@ -11133,7 +11133,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>853</v>
@@ -11166,7 +11166,7 @@
         <v>9</v>
       </c>
       <c r="Y80" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z80" s="54" t="s">
         <v>9</v>
@@ -11204,7 +11204,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>829</v>
@@ -11237,7 +11237,7 @@
         <v>9</v>
       </c>
       <c r="Y81" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z81" s="54" t="s">
         <v>9</v>
@@ -11275,7 +11275,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>1407</v>
@@ -11308,7 +11308,7 @@
         <v>32</v>
       </c>
       <c r="Y82" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z82" s="54" t="s">
         <v>9</v>
@@ -11346,7 +11346,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>1200</v>
@@ -11379,7 +11379,7 @@
         <v>23</v>
       </c>
       <c r="Y83" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z83" s="54" t="s">
         <v>9</v>
@@ -11416,19 +11416,19 @@
         <v>6</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>379</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>9</v>
@@ -11457,7 +11457,7 @@
         <v>23</v>
       </c>
       <c r="Y84" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z84" s="54" t="s">
         <v>9</v>
@@ -11489,19 +11489,19 @@
         <v>6</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>265</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>9</v>
@@ -11528,7 +11528,7 @@
         <v>32</v>
       </c>
       <c r="Y85" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z85" s="54" t="s">
         <v>9</v>
@@ -11566,7 +11566,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>848</v>
@@ -11599,7 +11599,7 @@
         <v>32</v>
       </c>
       <c r="Y86" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z86" s="54" t="s">
         <v>9</v>
@@ -11619,7 +11619,7 @@
         <v>2001</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>482</v>
@@ -11631,19 +11631,19 @@
         <v>6</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>483</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>9</v>
@@ -11672,7 +11672,7 @@
         <v>9</v>
       </c>
       <c r="Y87" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z87" s="54" t="s">
         <v>9</v>
@@ -11708,7 +11708,7 @@
         <v>125</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>1468</v>
@@ -11741,7 +11741,7 @@
         <v>9</v>
       </c>
       <c r="Y88" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z88" s="54" t="s">
         <v>9</v>
@@ -11777,13 +11777,13 @@
         <v>137</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>9</v>
@@ -11814,7 +11814,7 @@
         <v>23</v>
       </c>
       <c r="Y89" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z89" s="54" t="s">
         <v>23</v>
@@ -11850,7 +11850,7 @@
         <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>1242</v>
@@ -11885,7 +11885,7 @@
         <v>9</v>
       </c>
       <c r="Y90" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z90" s="54" t="s">
         <v>9</v>
@@ -11917,13 +11917,13 @@
         <v>6</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>444</v>
@@ -11958,7 +11958,7 @@
         <v>9</v>
       </c>
       <c r="Y91" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z91" s="54" t="s">
         <v>9</v>
@@ -11995,19 +11995,19 @@
         <v>6</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>9</v>
@@ -12038,7 +12038,7 @@
         <v>23</v>
       </c>
       <c r="Y92" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z92" s="54" t="s">
         <v>9</v>
@@ -12076,7 +12076,7 @@
         <v>7</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>623</v>
@@ -12111,7 +12111,7 @@
         <v>23</v>
       </c>
       <c r="Y93" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z93" s="54" t="s">
         <v>9</v>
@@ -12143,13 +12143,13 @@
         <v>6</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>126</v>
@@ -12182,7 +12182,7 @@
         <v>23</v>
       </c>
       <c r="Y94" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z94" s="54" t="s">
         <v>9</v>
@@ -12218,7 +12218,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>1394</v>
@@ -12249,7 +12249,7 @@
         <v>9</v>
       </c>
       <c r="Y95" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z95" s="54" t="s">
         <v>9</v>
@@ -12286,13 +12286,13 @@
         <v>6</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>672</v>
@@ -12327,10 +12327,10 @@
         <v>23</v>
       </c>
       <c r="Y96" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Z96" s="56" t="s">
         <v>1592</v>
-      </c>
-      <c r="Z96" s="56" t="s">
-        <v>1594</v>
       </c>
       <c r="AA96" s="1"/>
     </row>
@@ -12363,7 +12363,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>743</v>
@@ -12396,7 +12396,7 @@
         <v>9</v>
       </c>
       <c r="Y97" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z97" s="54" t="s">
         <v>9</v>
@@ -12428,13 +12428,13 @@
         <v>6</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>314</v>
@@ -12471,7 +12471,7 @@
         <v>23</v>
       </c>
       <c r="Y98" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z98" s="54" t="s">
         <v>23</v>
@@ -12514,7 +12514,7 @@
         <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>1464</v>
@@ -12549,7 +12549,7 @@
         <v>9</v>
       </c>
       <c r="Y99" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z99" s="54" t="s">
         <v>9</v>
@@ -12579,13 +12579,13 @@
         <v>6</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>1357</v>
@@ -12618,7 +12618,7 @@
         <v>23</v>
       </c>
       <c r="Y100" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z100" s="54" t="s">
         <v>23</v>
@@ -12654,7 +12654,7 @@
         <v>923</v>
       </c>
       <c r="J101" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>1434</v>
@@ -12687,7 +12687,7 @@
         <v>23</v>
       </c>
       <c r="Y101" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z101" s="54" t="s">
         <v>9</v>
@@ -12730,7 +12730,7 @@
         <v>137</v>
       </c>
       <c r="J102" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>156</v>
@@ -12763,7 +12763,7 @@
         <v>23</v>
       </c>
       <c r="Y102" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z102" s="54" t="s">
         <v>9</v>
@@ -12795,13 +12795,13 @@
         <v>6</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J103" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>963</v>
@@ -12834,7 +12834,7 @@
         <v>9</v>
       </c>
       <c r="Y103" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z103" s="54" t="s">
         <v>9</v>
@@ -12877,7 +12877,7 @@
         <v>137</v>
       </c>
       <c r="J104" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>795</v>
@@ -12910,7 +12910,7 @@
         <v>23</v>
       </c>
       <c r="Y104" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z104" s="54" t="s">
         <v>9</v>
@@ -12945,13 +12945,13 @@
         <v>6</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>1043</v>
@@ -12986,7 +12986,7 @@
         <v>9</v>
       </c>
       <c r="Y105" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="Z105" s="54" t="s">
         <v>23</v>
@@ -13021,13 +13021,13 @@
         <v>6</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>1019</v>
@@ -13092,13 +13092,13 @@
         <v>6</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>1019</v>
@@ -13163,19 +13163,19 @@
         <v>6</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>465</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>9</v>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>245</v>
@@ -13301,19 +13301,19 @@
         <v>6</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>340</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>9</v>
@@ -13370,19 +13370,19 @@
         <v>6</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>348</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>18</v>
@@ -13441,13 +13441,13 @@
         <v>6</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>401</v>
@@ -13510,19 +13510,19 @@
         <v>6</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>591</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>9</v>
@@ -13584,13 +13584,13 @@
         <v>6</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>667</v>
@@ -13670,7 +13670,7 @@
         <v>7</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>1084</v>
@@ -13741,7 +13741,7 @@
         <v>7</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>1158</v>
@@ -13812,7 +13812,7 @@
         <v>7</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>1183</v>
@@ -13881,7 +13881,7 @@
         <v>7</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>1238</v>
@@ -13946,13 +13946,13 @@
         <v>6</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>1370</v>
@@ -14005,7 +14005,7 @@
         <v>2013</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E120" s="29" t="s">
         <v>1507</v>
@@ -14023,7 +14023,7 @@
         <v>125</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>1508</v>
@@ -14086,13 +14086,13 @@
         <v>104</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>1163</v>
@@ -14159,7 +14159,7 @@
         <v>104</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>7</v>
@@ -14201,7 +14201,7 @@
         <v>9</v>
       </c>
       <c r="Z122" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA122" s="37" t="s">
         <v>1418</v>
@@ -14230,7 +14230,7 @@
         <v>104</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>7</v>
@@ -14272,7 +14272,7 @@
         <v>9</v>
       </c>
       <c r="Z123" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA123" s="1"/>
     </row>
@@ -14299,7 +14299,7 @@
         <v>6</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>7</v>
@@ -14343,7 +14343,7 @@
         <v>9</v>
       </c>
       <c r="Z124" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA124" s="1"/>
     </row>
@@ -14370,7 +14370,7 @@
         <v>6</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>7</v>
@@ -14414,7 +14414,7 @@
         <v>9</v>
       </c>
       <c r="Z125" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA125" s="1"/>
     </row>
@@ -14441,7 +14441,7 @@
         <v>6</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>7</v>
@@ -14489,7 +14489,7 @@
         <v>9</v>
       </c>
       <c r="Z126" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA126" s="1"/>
     </row>
@@ -14516,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>7</v>
@@ -14560,7 +14560,7 @@
         <v>9</v>
       </c>
       <c r="Z127" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA127" s="1"/>
     </row>
@@ -14587,7 +14587,7 @@
         <v>104</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>7</v>
@@ -14629,7 +14629,7 @@
         <v>9</v>
       </c>
       <c r="Z128" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA128" s="1"/>
     </row>
@@ -14727,7 +14727,7 @@
         <v>6</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>7</v>
@@ -14800,7 +14800,7 @@
         <v>104</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>7</v>
@@ -14873,7 +14873,7 @@
         <v>6</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>7</v>
@@ -14944,7 +14944,7 @@
         <v>6</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>7</v>
@@ -15020,7 +15020,7 @@
         <v>6</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>7</v>
@@ -15089,7 +15089,7 @@
         <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>7</v>
@@ -15160,7 +15160,7 @@
         <v>6</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>7</v>
@@ -15298,7 +15298,7 @@
         <v>104</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>7</v>
@@ -15310,7 +15310,7 @@
         <v>218</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>6</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>7</v>
@@ -15379,7 +15379,7 @@
         <v>222</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>9</v>
@@ -15440,7 +15440,7 @@
         <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>7</v>
@@ -15452,7 +15452,7 @@
         <v>319</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>9</v>
@@ -15514,7 +15514,7 @@
         <v>6</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>7</v>
@@ -15526,7 +15526,7 @@
         <v>384</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>9</v>
@@ -15587,7 +15587,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>7</v>
@@ -15662,7 +15662,7 @@
         <v>6</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>7</v>
@@ -15731,7 +15731,7 @@
         <v>6</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I144" s="12" t="s">
         <v>7</v>
@@ -15805,7 +15805,7 @@
         <v>6</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>7</v>
@@ -15883,7 +15883,7 @@
         <v>6</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>7</v>
@@ -15954,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>7</v>
@@ -16027,7 +16027,7 @@
         <v>6</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>7</v>
@@ -16039,7 +16039,7 @@
         <v>878</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>9</v>
@@ -16096,7 +16096,7 @@
         <v>6</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>7</v>
@@ -16169,7 +16169,7 @@
         <v>6</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>7</v>
@@ -16242,7 +16242,7 @@
         <v>6</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>7</v>
@@ -16311,7 +16311,7 @@
         <v>6</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>7</v>
@@ -16323,7 +16323,7 @@
         <v>977</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>9</v>
@@ -16380,7 +16380,7 @@
         <v>6</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>7</v>
@@ -16392,7 +16392,7 @@
         <v>991</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>6</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>7</v>
@@ -16465,7 +16465,7 @@
         <v>1176</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>9</v>
@@ -16522,7 +16522,7 @@
         <v>6</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>7</v>
@@ -16595,7 +16595,7 @@
         <v>6</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>7</v>
@@ -16607,7 +16607,7 @@
         <v>1378</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>9</v>
@@ -16668,7 +16668,7 @@
         <v>6</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>7</v>
@@ -16680,7 +16680,7 @@
         <v>1456</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>9</v>
@@ -16741,7 +16741,7 @@
         <v>6</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>7</v>
@@ -16812,7 +16812,7 @@
         <v>6</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>7</v>
@@ -16824,7 +16824,7 @@
         <v>891</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>9</v>
@@ -16883,7 +16883,7 @@
         <v>6</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>7</v>
@@ -16952,7 +16952,7 @@
         <v>6</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>7</v>
@@ -17021,7 +17021,7 @@
         <v>6</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>7</v>
@@ -17090,13 +17090,13 @@
         <v>6</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>62</v>
@@ -17161,19 +17161,19 @@
         <v>151</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K164" s="8" t="s">
         <v>396</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>9</v>
@@ -17232,19 +17232,19 @@
         <v>6</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>790</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>7</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>1190</v>
@@ -17376,19 +17376,19 @@
         <v>6</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>9</v>
@@ -17447,19 +17447,19 @@
         <v>104</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>539</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>9</v>
@@ -17524,7 +17524,7 @@
         <v>7</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>41</v>
@@ -17587,13 +17587,13 @@
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>281</v>
@@ -17660,13 +17660,13 @@
         <v>6</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>290</v>
@@ -17735,19 +17735,19 @@
         <v>6</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>323</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>9</v>
@@ -17804,13 +17804,13 @@
         <v>6</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>327</v>
@@ -17875,13 +17875,13 @@
         <v>6</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>429</v>
@@ -17944,19 +17944,19 @@
         <v>104</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>473</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>9</v>
@@ -18013,13 +18013,13 @@
         <v>6</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>487</v>
@@ -18082,19 +18082,19 @@
         <v>104</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>518</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>9</v>
@@ -18156,19 +18156,19 @@
         <v>6</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>655</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>18</v>
@@ -18227,19 +18227,19 @@
         <v>6</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>716</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>18</v>
@@ -18298,19 +18298,19 @@
         <v>104</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>773</v>
       </c>
       <c r="L180" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>9</v>
@@ -18369,13 +18369,13 @@
         <v>6</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>914</v>
@@ -18440,13 +18440,13 @@
         <v>6</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>919</v>
@@ -18509,19 +18509,19 @@
         <v>6</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>923</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>924</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>9</v>
@@ -18580,19 +18580,19 @@
         <v>6</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>948</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>9</v>
@@ -18656,19 +18656,19 @@
         <v>6</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>973</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>9</v>
@@ -18725,19 +18725,19 @@
         <v>6</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>9</v>
@@ -18798,13 +18798,13 @@
         <v>6</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>1004</v>
@@ -18875,7 +18875,7 @@
         <v>7</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>1007</v>
@@ -18938,19 +18938,19 @@
         <v>6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>9</v>
@@ -19015,7 +19015,7 @@
         <v>7</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>1080</v>
@@ -19086,7 +19086,7 @@
         <v>7</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>1153</v>
@@ -19157,7 +19157,7 @@
         <v>7</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>1180</v>
@@ -19224,13 +19224,13 @@
         <v>6</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>1214</v>
@@ -19293,13 +19293,13 @@
         <v>6</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>1270</v>
@@ -19355,7 +19355,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F195" s="22" t="s">
         <v>5</v>
@@ -19364,13 +19364,13 @@
         <v>6</v>
       </c>
       <c r="H195" s="46" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I195" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K195" s="8" t="s">
         <v>1283</v>
@@ -19441,7 +19441,7 @@
         <v>7</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>1344</v>
@@ -19506,19 +19506,19 @@
         <v>6</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>9</v>
@@ -19585,7 +19585,7 @@
         <v>7</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>637</v>
@@ -19655,13 +19655,13 @@
         <v>6</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>405</v>
@@ -19730,13 +19730,13 @@
         <v>6</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>702</v>
@@ -19807,13 +19807,13 @@
         <v>6</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>1339</v>
@@ -19882,13 +19882,13 @@
         <v>6</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>295</v>
@@ -19953,19 +19953,19 @@
         <v>6</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>543</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>18</v>
@@ -20031,13 +20031,13 @@
         <v>6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>952</v>
@@ -20108,19 +20108,19 @@
         <v>151</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>566</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>104</v>
@@ -20183,13 +20183,13 @@
         <v>301</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>595</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>18</v>
@@ -20260,13 +20260,13 @@
         <v>301</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>1472</v>
       </c>
       <c r="L207" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>18</v>
@@ -20327,13 +20327,13 @@
         <v>6</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>227</v>
@@ -20396,19 +20396,19 @@
         <v>6</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>336</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>9</v>
@@ -20465,13 +20465,13 @@
         <v>6</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>415</v>
@@ -20538,13 +20538,13 @@
         <v>6</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>526</v>
@@ -20614,13 +20614,13 @@
         <v>6</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>530</v>
@@ -20683,13 +20683,13 @@
         <v>6</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>534</v>
@@ -20744,7 +20744,7 @@
         <v>2012</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E214" s="32" t="s">
         <v>957</v>
@@ -20756,19 +20756,19 @@
         <v>104</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I214" s="6" t="s">
         <v>137</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K214" s="6" t="s">
         <v>958</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M214" s="6" t="s">
         <v>9</v>
@@ -20825,13 +20825,13 @@
         <v>6</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>1028</v>
@@ -20894,19 +20894,19 @@
         <v>6</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>9</v>
@@ -20970,19 +20970,19 @@
         <v>6</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>18</v>
@@ -21045,19 +21045,19 @@
         <v>104</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>9</v>
@@ -21116,13 +21116,13 @@
         <v>104</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>1120</v>
@@ -21185,13 +21185,13 @@
         <v>104</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>1226</v>
@@ -21256,13 +21256,13 @@
         <v>6</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>35</v>
@@ -21327,19 +21327,19 @@
         <v>6</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>612</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>613</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>9</v>
@@ -21405,13 +21405,13 @@
         <v>104</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>781</v>
@@ -21474,13 +21474,13 @@
         <v>6</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>933</v>
@@ -21545,19 +21545,19 @@
         <v>6</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>18</v>
@@ -21618,13 +21618,13 @@
         <v>6</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>27</v>
@@ -21692,19 +21692,19 @@
         <v>6</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>302</v>
       </c>
       <c r="L227" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>9</v>
@@ -21763,19 +21763,19 @@
         <v>6</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>583</v>
       </c>
       <c r="L228" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>9</v>
@@ -21836,13 +21836,13 @@
         <v>6</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>752</v>
@@ -21905,13 +21905,13 @@
         <v>6</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>1024</v>
@@ -21974,19 +21974,19 @@
         <v>6</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="L231" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>18</v>
@@ -22047,19 +22047,19 @@
         <v>6</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="L232" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>9</v>
@@ -22116,19 +22116,19 @@
         <v>6</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>18</v>
@@ -22195,7 +22195,7 @@
         <v>7</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>1374</v>
@@ -22258,13 +22258,13 @@
         <v>6</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>1055</v>
@@ -22327,19 +22327,19 @@
         <v>6</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>9</v>
@@ -22400,19 +22400,19 @@
         <v>6</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>618</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>9</v>
@@ -22469,13 +22469,13 @@
         <v>6</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>862</v>
@@ -22538,16 +22538,16 @@
         <v>6</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1579</v>
+        <v>1594</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>1521</v>
+        <v>1595</v>
       </c>
       <c r="L239" s="1" t="s">
         <v>28</v>
@@ -22571,7 +22571,7 @@
         <v>49</v>
       </c>
       <c r="U239" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="V239" s="1" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>9</v>
       </c>
       <c r="AA239" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="240" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22613,13 +22613,13 @@
         <v>6</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>561</v>
@@ -22684,19 +22684,19 @@
         <v>6</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>9</v>
@@ -22758,13 +22758,13 @@
         <v>6</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>928</v>
@@ -22835,19 +22835,19 @@
         <v>6</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>996</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>9</v>
@@ -22906,19 +22906,19 @@
         <v>6</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>756</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>9</v>
@@ -22975,13 +22975,13 @@
         <v>6</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>981</v>
@@ -23052,13 +23052,13 @@
         <v>6</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>211</v>
@@ -23129,19 +23129,19 @@
         <v>6</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>9</v>
@@ -23200,19 +23200,19 @@
         <v>6</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>477</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>9</v>
@@ -23273,13 +23273,13 @@
         <v>6</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>115</v>
@@ -23346,13 +23346,13 @@
         <v>6</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>131</v>
@@ -23417,13 +23417,13 @@
         <v>6</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>143</v>
@@ -23486,13 +23486,13 @@
         <v>6</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>184</v>
@@ -23555,13 +23555,13 @@
         <v>6</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>188</v>
@@ -23628,19 +23628,19 @@
         <v>6</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>232</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>9</v>
@@ -23701,19 +23701,19 @@
         <v>6</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>249</v>
       </c>
       <c r="L255" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>104</v>
@@ -23772,19 +23772,19 @@
         <v>6</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>361</v>
       </c>
       <c r="L256" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>9</v>
@@ -23845,19 +23845,19 @@
         <v>6</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>365</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>9</v>
@@ -23916,19 +23916,19 @@
         <v>6</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>440</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>9</v>
@@ -23985,13 +23985,13 @@
         <v>6</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>514</v>
@@ -24056,19 +24056,19 @@
         <v>6</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>599</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>9</v>
@@ -24134,19 +24134,19 @@
         <v>6</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>641</v>
       </c>
       <c r="L261" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>9</v>
@@ -24215,7 +24215,7 @@
         <v>7</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>748</v>
@@ -24283,13 +24283,13 @@
         <v>104</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>765</v>
@@ -24359,13 +24359,13 @@
         <v>6</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I264" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K264" s="12" t="s">
         <v>937</v>
@@ -24435,13 +24435,13 @@
         <v>6</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>941</v>
@@ -24509,19 +24509,19 @@
         <v>6</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="L266" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>18</v>
@@ -24593,7 +24593,7 @@
         <v>7</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>1141</v>
@@ -24665,19 +24665,19 @@
         <v>6</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="L268" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>9</v>
@@ -24751,7 +24751,7 @@
         <v>7</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>1149</v>
@@ -24829,7 +24829,7 @@
         <v>7</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>1230</v>
@@ -24903,7 +24903,7 @@
         <v>7</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>1251</v>
@@ -24971,19 +24971,19 @@
         <v>6</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>9</v>
@@ -25047,19 +25047,19 @@
         <v>6</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="L273" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>9</v>
@@ -25127,7 +25127,7 @@
         <v>7</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>1291</v>
@@ -25190,13 +25190,13 @@
         <v>6</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>1317</v>
@@ -25272,13 +25272,13 @@
         <v>6</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>1353</v>
@@ -25346,19 +25346,19 @@
         <v>6</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="L277" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>9</v>
@@ -25428,7 +25428,7 @@
         <v>7</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>1430</v>
@@ -25496,13 +25496,13 @@
         <v>6</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>1460</v>
@@ -25572,19 +25572,19 @@
         <v>6</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L280" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>9</v>
@@ -25646,13 +25646,13 @@
         <v>6</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>53</v>
@@ -25720,19 +25720,19 @@
         <v>6</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>9</v>
@@ -25789,13 +25789,13 @@
         <v>6</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>344</v>
@@ -25858,13 +25858,13 @@
         <v>6</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>352</v>
@@ -25927,19 +25927,19 @@
         <v>6</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>436</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>9</v>
@@ -25996,19 +25996,19 @@
         <v>104</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>633</v>
       </c>
       <c r="L286" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M286" s="12" t="s">
         <v>18</v>
@@ -26072,19 +26072,19 @@
         <v>6</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>785</v>
       </c>
       <c r="L287" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>18</v>
@@ -26143,13 +26143,13 @@
         <v>6</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>110</v>
@@ -26216,13 +26216,13 @@
         <v>6</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>461</v>
@@ -26285,13 +26285,13 @@
         <v>6</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>522</v>
@@ -26356,13 +26356,13 @@
         <v>6</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>579</v>
@@ -26427,13 +26427,13 @@
         <v>6</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>1011</v>
@@ -26496,13 +26496,13 @@
         <v>104</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>1064</v>
@@ -26571,7 +26571,7 @@
         <v>7</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>1274</v>
@@ -26641,13 +26641,13 @@
         <v>6</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>1335</v>
@@ -26725,7 +26725,7 @@
         <v>7</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>1313</v>
@@ -26761,7 +26761,7 @@
         <v>9</v>
       </c>
       <c r="Z296" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA296" s="1"/>
       <c r="AB296" s="11"/>
@@ -26793,13 +26793,13 @@
         <v>6</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>425</v>
@@ -26837,7 +26837,7 @@
         <v>9</v>
       </c>
       <c r="Z297" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA297" s="1"/>
     </row>
@@ -26864,13 +26864,13 @@
         <v>6</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>969</v>
@@ -26906,7 +26906,7 @@
         <v>9</v>
       </c>
       <c r="Z298" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA298" s="1"/>
     </row>
@@ -26933,19 +26933,19 @@
         <v>6</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>496</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>9</v>
@@ -27008,13 +27008,13 @@
         <v>6</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I300" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K300" s="12" t="s">
         <v>603</v>
@@ -27081,19 +27081,19 @@
         <v>6</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K301" s="6" t="s">
         <v>94</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M301" s="6" t="s">
         <v>9</v>
@@ -27150,13 +27150,13 @@
         <v>6</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>193</v>
@@ -27224,13 +27224,13 @@
         <v>6</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>411</v>
@@ -27295,19 +27295,19 @@
         <v>6</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>453</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>9</v>
@@ -27368,13 +27368,13 @@
         <v>6</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>457</v>
@@ -27439,19 +27439,19 @@
         <v>6</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>548</v>
       </c>
       <c r="L306" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>9</v>
@@ -27510,13 +27510,13 @@
         <v>6</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>575</v>
@@ -27579,13 +27579,13 @@
         <v>6</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I308" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>707</v>
@@ -27654,13 +27654,13 @@
         <v>6</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>1032</v>
@@ -27723,13 +27723,13 @@
         <v>6</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K310" s="1" t="s">
         <v>1036</v>
@@ -27794,19 +27794,19 @@
         <v>6</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="L311" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>9</v>
@@ -27865,13 +27865,13 @@
         <v>6</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>1096</v>
@@ -27934,13 +27934,13 @@
         <v>6</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K313" s="1" t="s">
         <v>1100</v>
@@ -28008,19 +28008,19 @@
         <v>104</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>663</v>
       </c>
       <c r="L314" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>18</v>
@@ -28054,7 +28054,7 @@
         <v>9</v>
       </c>
       <c r="Z314" s="54" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AA314" s="1"/>
     </row>
@@ -28081,19 +28081,19 @@
         <v>6</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I315" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>370</v>
       </c>
       <c r="L315" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>9</v>
@@ -28150,13 +28150,13 @@
         <v>6</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>725</v>
@@ -28219,19 +28219,19 @@
         <v>6</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I317" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K317" s="6" t="s">
         <v>308</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="M317" s="6" t="s">
         <v>104</v>
@@ -28294,13 +28294,13 @@
         <v>137</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>509</v>
       </c>
       <c r="L318" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M318" s="1" t="s">
         <v>18</v>
@@ -28363,19 +28363,19 @@
         <v>6</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="L319" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>9</v>
@@ -28442,7 +28442,7 @@
         <v>137</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K320" s="1" t="s">
         <v>1322</v>
@@ -28513,13 +28513,13 @@
         <v>6</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J321" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K321" s="1" t="s">
         <v>419</v>
@@ -28591,13 +28591,13 @@
         <v>6</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J322" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K322" s="1" t="s">
         <v>1128</v>
@@ -28664,13 +28664,13 @@
         <v>6</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I323" s="35" t="s">
         <v>137</v>
       </c>
       <c r="J323" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K323" s="35" t="s">
         <v>1512</v>
@@ -28742,13 +28742,13 @@
         <v>6</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J324" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K324" s="1" t="s">
         <v>331</v>
@@ -28818,13 +28818,13 @@
         <v>6</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J325" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>571</v>
@@ -28892,19 +28892,19 @@
         <v>6</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J326" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K326" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="L326" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M326" s="1" t="s">
         <v>18</v>
@@ -28963,19 +28963,19 @@
         <v>6</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J327" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="L327" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>18</v>
@@ -29040,19 +29040,19 @@
         <v>6</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J328" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K328" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="L328" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>9</v>
@@ -29109,13 +29109,13 @@
         <v>6</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J329" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K329" s="1" t="s">
         <v>1137</v>
@@ -29178,19 +29178,19 @@
         <v>6</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J330" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="L330" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M330" s="1" t="s">
         <v>18</v>
@@ -29251,19 +29251,19 @@
         <v>6</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J331" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K331" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="L331" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M331" s="1" t="s">
         <v>9</v>
@@ -29322,13 +29322,13 @@
         <v>6</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J332" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K332" s="1" t="s">
         <v>1218</v>
@@ -29391,13 +29391,13 @@
         <v>6</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J333" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K333" s="1" t="s">
         <v>1222</v>
@@ -29460,13 +29460,13 @@
         <v>6</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J334" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K334" s="1" t="s">
         <v>1234</v>
@@ -29529,19 +29529,19 @@
         <v>6</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I335" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J335" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K335" s="12" t="s">
         <v>1326</v>
       </c>
       <c r="L335" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M335" s="12" t="s">
         <v>18</v>
@@ -29602,13 +29602,13 @@
         <v>6</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J336" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>1476</v>
@@ -29673,13 +29673,13 @@
         <v>6</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J337" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K337" s="1" t="s">
         <v>1480</v>
@@ -29732,7 +29732,7 @@
         <v>2013</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E338" s="24" t="s">
         <v>87</v>
@@ -29750,7 +29750,7 @@
         <v>7</v>
       </c>
       <c r="J338" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K338" s="6" t="s">
         <v>89</v>
@@ -29824,13 +29824,13 @@
         <v>6</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J339" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K339" s="1" t="s">
         <v>392</v>
